--- a/template.xlsx
+++ b/template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\lemure_viewer_local_debug\lemure_viewer_win7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Downloads\lab_viewer-main\lab_view\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C87651B-A987-4D95-B8D8-6642A783D380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D2C01F-7107-427C-9C1E-2D1403240B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{567E23D1-9027-490D-A6E6-D7650005BE01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{567E23D1-9027-490D-A6E6-D7650005BE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>Время испытания, мин</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>R290</t>
+  </si>
+  <si>
+    <t>R600a</t>
+  </si>
+  <si>
+    <t>пропишите здесь марку хладагента</t>
   </si>
 </sst>
 </file>
@@ -134,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +214,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -460,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -612,6 +636,8 @@
     <xf numFmtId="164" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -631,9 +657,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -671,7 +697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -777,7 +803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -919,7 +945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -930,17 +956,20 @@
   <dimension ref="B1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:55" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="51" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="52" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="2:55" ht="148.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:55" ht="150.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="22">
         <v>1</v>
       </c>
@@ -1268,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:55" x14ac:dyDescent="0.35">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1341,5 +1370,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2FD8596-8BE8-4113-8455-D1BEFDF8E7A2}">
+          <x14:formula1>
+            <xm:f>Лист2!$A$1:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7509EAE0-6145-4BE5-BC0F-D07042B44FBA}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Downloads\lab_viewer-main\lab_view\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scripts\lemure_viewer_local_debug\lab_viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D2C01F-7107-427C-9C1E-2D1403240B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64348C4D-C207-46CC-A58F-05C8958E3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{567E23D1-9027-490D-A6E6-D7650005BE01}"/>
+    <workbookView xWindow="1470" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{567E23D1-9027-490D-A6E6-D7650005BE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>Время испытания, мин</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>R600a</t>
-  </si>
-  <si>
-    <t>пропишите здесь марку хладагента</t>
   </si>
 </sst>
 </file>
@@ -657,9 +654,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -697,7 +694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -803,7 +800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -945,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,20 +953,18 @@
   <dimension ref="B1:BC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:55" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:55" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>31</v>
-      </c>
+      <c r="C1" s="52"/>
     </row>
-    <row r="2" spans="2:55" ht="150.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:55" ht="150" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:55" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="22">
         <v>1</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
@@ -1393,14 +1388,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
